--- a/08_文件模板/需求文档（IT用户）模板.xlsx
+++ b/08_文件模板/需求文档（IT用户）模板.xlsx
@@ -4,32 +4,34 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465"/>
+    <workbookView windowWidth="28245" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="5" r:id="rId1"/>
-    <sheet name="机电需求一览" sheetId="6" r:id="rId2"/>
-    <sheet name="设备完好率算法" sheetId="10" r:id="rId3"/>
-    <sheet name="巡检电子围栏" sheetId="11" r:id="rId4"/>
-    <sheet name="故障详情UI" sheetId="8" r:id="rId5"/>
-    <sheet name="故障详情PC端UI" sheetId="13" r:id="rId6"/>
-    <sheet name="位置信息(功能)调整" sheetId="12" r:id="rId7"/>
+    <sheet name="需求文档变更履历" sheetId="14" r:id="rId2"/>
+    <sheet name="机电需求一览" sheetId="6" r:id="rId3"/>
+    <sheet name="设备完好率算法" sheetId="10" r:id="rId4"/>
+    <sheet name="巡检电子围栏" sheetId="11" r:id="rId5"/>
+    <sheet name="故障详情UI" sheetId="8" r:id="rId6"/>
+    <sheet name="故障详情PC端UI" sheetId="13" r:id="rId7"/>
+    <sheet name="位置信息(功能)调整" sheetId="12" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">首页!$A$1:$N$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">机电需求一览!$A$1:$H$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">设备完好率算法!$A$1:$M$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">巡检电子围栏!$A$1:$M$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">故障详情UI!$A$1:$U$106</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'位置信息(功能)调整'!$A$1:$M$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">故障详情PC端UI!$A$1:$U$235</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">机电需求一览!$A$1:$H$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">设备完好率算法!$A$1:$M$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">巡检电子围栏!$A$1:$M$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">故障详情UI!$A$1:$U$106</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'位置信息(功能)调整'!$A$1:$M$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">故障详情PC端UI!$A$1:$U$235</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">需求文档变更履历!$A$1:$G$50</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="135">
   <si>
     <t>[项目名称]需求文档</t>
   </si>
@@ -44,6 +46,27 @@
   </si>
   <si>
     <t>序号</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 日期</t>
+  </si>
+  <si>
+    <t>版本</t>
+  </si>
+  <si>
+    <t>变更说明</t>
+  </si>
+  <si>
+    <t>作者</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>新建</t>
+  </si>
+  <si>
+    <t>陶赠元</t>
   </si>
   <si>
     <t>模块</t>
@@ -454,10 +477,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -512,22 +535,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,16 +564,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,14 +587,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -580,9 +594,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,8 +624,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,29 +671,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,19 +711,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,13 +765,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,13 +777,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,25 +795,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,37 +861,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,37 +879,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,6 +1063,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1051,30 +1092,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,20 +1113,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1131,9 +1152,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,10 +1168,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1157,137 +1180,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1350,6 +1373,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -7919,329 +7960,329 @@
   <sheetPr/>
   <dimension ref="B7:N27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C17" sqref="C16:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="7" spans="2:14">
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="24"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="30"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="24"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="30"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="24"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="30"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="24"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="24"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="30"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="24"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="30"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="24"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="30"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="24"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="30"/>
     </row>
     <row r="15" ht="35.25" spans="2:14">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="24"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="30"/>
     </row>
     <row r="16" ht="35.25" spans="2:14">
-      <c r="B16" s="23"/>
-      <c r="C16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="24"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="30"/>
     </row>
     <row r="17" ht="35.25" spans="2:14">
-      <c r="B17" s="23"/>
-      <c r="C17" s="28" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="24"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="30"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="24"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="30"/>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="24"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="30"/>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="24"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="30"/>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="24"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="30"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="24"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="30"/>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="24"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="30"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8257,10 +8298,218 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="B2:F24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="2.25" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="60.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="1" ht="32" customHeight="1" spans="2:4">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f ca="1">MID(CELL("filename",A2),FIND("]",CELL("filename"))+1,255)</f>
+        <v>需求文档变更履历</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" spans="2:6">
+      <c r="B4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="42" customHeight="1" spans="2:6">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="22">
+        <v>43663</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="26"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="45" orientation="portrait"/>
+  <headerFooter/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="50" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -8291,20 +8540,20 @@
         <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" ht="18.75" spans="2:8">
@@ -8313,10 +8562,10 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H5" s="10"/>
     </row>
@@ -8325,22 +8574,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" ht="53" customHeight="1" spans="2:8">
@@ -8349,19 +8598,19 @@
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" ht="78" customHeight="1" spans="2:8">
@@ -8370,19 +8619,19 @@
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>16</v>
-      </c>
       <c r="H8" s="14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" ht="96" customHeight="1" spans="2:8">
@@ -8391,19 +8640,19 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" ht="93.75" spans="2:8">
@@ -8411,22 +8660,22 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="68" customHeight="1" spans="2:8">
@@ -8434,22 +8683,22 @@
         <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="118" customHeight="1" spans="2:8">
@@ -8458,19 +8707,19 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="75" customHeight="1" spans="2:8">
@@ -8478,22 +8727,22 @@
         <v>8</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="37.5" spans="2:8">
@@ -8501,22 +8750,22 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="131.25" spans="2:8">
@@ -8524,22 +8773,22 @@
         <v>10</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="187.5" spans="2:8">
@@ -8547,22 +8796,22 @@
         <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="37.5" spans="2:8">
@@ -8570,22 +8819,22 @@
         <v>12</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="37.5" spans="2:8">
@@ -8594,19 +8843,19 @@
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="19" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="112.5" spans="2:8">
@@ -8615,19 +8864,19 @@
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="19" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="37.5" spans="2:8">
@@ -8636,19 +8885,19 @@
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="37.5" spans="2:8">
@@ -8657,19 +8906,19 @@
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="19" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="18.75" spans="2:8">
@@ -8678,19 +8927,19 @@
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="18" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="93.75" spans="2:8">
@@ -8699,19 +8948,19 @@
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="18" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" ht="37.5" spans="2:8">
@@ -8719,18 +8968,18 @@
         <v>19</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="56.25" spans="2:8">
@@ -8739,19 +8988,19 @@
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="19" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="37.5" spans="2:8">
@@ -8760,17 +9009,17 @@
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="19" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="18.75" spans="2:8">
@@ -8778,22 +9027,22 @@
         <v>22</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -8818,7 +9067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:H23"/>
@@ -8840,177 +9089,79 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="76" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B2:H19"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
-  <sheetData>
-    <row r="2" ht="32" customHeight="1" spans="2:8">
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <f ca="1">MID(CELL("filename",A2),FIND("]",CELL("filename"))+1,255)</f>
-        <v>巡检电子围栏</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -9027,6 +9178,104 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="B2:H19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="2" ht="32" customHeight="1" spans="2:8">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f ca="1">MID(CELL("filename",A2),FIND("]",CELL("filename"))+1,255)</f>
+        <v>巡检电子围栏</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:T4"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -9046,7 +9295,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -9087,7 +9336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:T4"/>
@@ -9109,7 +9358,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -9153,7 +9402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:H11"/>
@@ -9175,39 +9424,39 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/08_文件模板/需求文档（IT用户）模板.xlsx
+++ b/08_文件模板/需求文档（IT用户）模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28245" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="5" r:id="rId1"/>
@@ -60,7 +60,7 @@
     <t>作者</t>
   </si>
   <si>
-    <t>1.0</t>
+    <t>V1.0</t>
   </si>
   <si>
     <t>新建</t>
@@ -535,7 +535,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,11 +564,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -572,7 +596,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,7 +604,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,8 +618,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,22 +649,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -648,7 +657,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,23 +672,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,13 +711,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,7 +795,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,43 +819,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,37 +861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,55 +873,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,11 +1063,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1082,16 +1088,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,6 +1119,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1121,42 +1138,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1168,10 +1168,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1180,133 +1180,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8300,8 +8300,8 @@
   <sheetPr/>
   <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8508,8 +8508,8 @@
   <sheetPr/>
   <dimension ref="B2:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
